--- a/TestDataXls/Tutor Add Camp.xlsx
+++ b/TestDataXls/Tutor Add Camp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F775DCE-2389-4DA9-B126-EDB74EEB7C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C0F5AF-A2A1-4520-AC9B-EF1DDA78B7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
   <si>
     <t>password</t>
   </si>
@@ -245,13 +245,25 @@
     <t>18/05/2022</t>
   </si>
   <si>
-    <t>03/06/2022</t>
-  </si>
-  <si>
-    <t>30/06/2022</t>
-  </si>
-  <si>
     <t>math 1</t>
+  </si>
+  <si>
+    <t>srinivasesaivanan6324@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>Cello</t>
+  </si>
+  <si>
+    <t>D:\test\picturesprofile1\bharat3.jpg</t>
+  </si>
+  <si>
+    <t>22/12/2022</t>
+  </si>
+  <si>
+    <t>23/11/2022</t>
   </si>
 </sst>
 </file>
@@ -309,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -330,7 +342,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -672,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,7 +830,7 @@
       <c r="J2" s="6">
         <v>20</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" t="s">
         <v>38</v>
       </c>
       <c r="L2" s="7" t="s">
@@ -899,7 +910,7 @@
       <c r="J3" s="6">
         <v>20</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" t="s">
         <v>39</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -979,7 +990,7 @@
       <c r="J4" s="6">
         <v>20</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -1056,7 +1067,7 @@
       <c r="J5" s="6">
         <v>40</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" t="s">
         <v>41</v>
       </c>
       <c r="L5" s="7" t="s">
@@ -1136,7 +1147,7 @@
       <c r="J6" s="6">
         <v>20</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" t="s">
         <v>42</v>
       </c>
       <c r="L6" s="7" t="s">
@@ -1195,17 +1206,17 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>66</v>
+      <c r="D7" t="s">
+        <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
@@ -1216,8 +1227,8 @@
       <c r="J7" s="6">
         <v>20</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>42</v>
+      <c r="K7" t="s">
+        <v>73</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>60</v>
@@ -1232,10 +1243,10 @@
         <v>44</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>55</v>
@@ -1297,10 +1308,9 @@
     <hyperlink ref="E5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="D6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="E6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D7" r:id="rId11" xr:uid="{490DA95F-AA0E-44DC-B5DB-D0DFD0CEBEA3}"/>
-    <hyperlink ref="E7" r:id="rId12" xr:uid="{782EB6F7-9785-4484-84D5-B2FFDD27BD9E}"/>
+    <hyperlink ref="E7" r:id="rId11" xr:uid="{131CDBBE-971A-4B51-86A2-3128211A3602}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/TestDataXls/Tutor Add Camp.xlsx
+++ b/TestDataXls/Tutor Add Camp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C0F5AF-A2A1-4520-AC9B-EF1DDA78B7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A98E981-7734-4B7F-9B3A-F74FE078D410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
   <si>
     <t>password</t>
   </si>
@@ -164,9 +164,6 @@
     <t>D:\nurtem-test\picturesprofile1\tennis3.jpg</t>
   </si>
   <si>
-    <t>D:\nurtem-test\picturesprofile1\tennis4.jpg</t>
-  </si>
-  <si>
     <t>This is French camp teaching how the history where they conquered puducherry</t>
   </si>
   <si>
@@ -233,18 +230,9 @@
     <t>chess</t>
   </si>
   <si>
-    <t>31/05/2022</t>
-  </si>
-  <si>
-    <t>tutor39@nkt.com</t>
-  </si>
-  <si>
     <t>camp chess 5</t>
   </si>
   <si>
-    <t>18/05/2022</t>
-  </si>
-  <si>
     <t>math 1</t>
   </si>
   <si>
@@ -264,6 +252,15 @@
   </si>
   <si>
     <t>23/11/2022</t>
+  </si>
+  <si>
+    <t>tutor53@nkt.com</t>
+  </si>
+  <si>
+    <t>07/12/2022</t>
+  </si>
+  <si>
+    <t>31/01/2023</t>
   </si>
 </sst>
 </file>
@@ -683,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,7 +801,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -834,7 +831,7 @@
         <v>38</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" s="2">
         <v>18100</v>
@@ -843,13 +840,13 @@
         <v>1</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="Q2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>27</v>
@@ -867,10 +864,10 @@
         <v>1</v>
       </c>
       <c r="W2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -884,7 +881,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -899,7 +896,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
@@ -914,7 +911,7 @@
         <v>39</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3" s="2">
         <v>18100</v>
@@ -923,13 +920,13 @@
         <v>1</v>
       </c>
       <c r="O3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="Q3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>27</v>
@@ -947,10 +944,10 @@
         <v>1</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y3">
         <v>2</v>
@@ -964,7 +961,7 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -979,7 +976,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
@@ -994,7 +991,7 @@
         <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M4" s="2">
         <v>18100</v>
@@ -1003,19 +1000,19 @@
         <v>1</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="Q4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="T4" s="4">
         <v>20</v>
@@ -1027,10 +1024,10 @@
         <v>1</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y4">
         <v>3</v>
@@ -1047,16 +1044,16 @@
         <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
         <v>58</v>
-      </c>
-      <c r="G5" t="s">
-        <v>59</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
@@ -1071,7 +1068,7 @@
         <v>41</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M5" s="2">
         <v>18100</v>
@@ -1080,19 +1077,19 @@
         <v>1</v>
       </c>
       <c r="O5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="R5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="T5" s="4">
         <v>16</v>
@@ -1104,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y5">
         <v>4</v>
@@ -1121,22 +1118,22 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
         <v>64</v>
-      </c>
-      <c r="G6" t="s">
-        <v>67</v>
       </c>
       <c r="H6" t="s">
         <v>31</v>
@@ -1148,10 +1145,10 @@
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M6" s="2">
         <v>18100</v>
@@ -1160,19 +1157,19 @@
         <v>1</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="R6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="T6" s="4">
         <v>16</v>
@@ -1184,10 +1181,10 @@
         <v>1</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y6">
         <v>5</v>
@@ -1201,22 +1198,22 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
@@ -1228,10 +1225,10 @@
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M7" s="2">
         <v>18100</v>
@@ -1240,19 +1237,19 @@
         <v>1</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="R7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="T7" s="4">
         <v>16</v>
@@ -1264,10 +1261,10 @@
         <v>1</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y7">
         <v>5</v>

--- a/TestDataXls/Tutor Add Camp.xlsx
+++ b/TestDataXls/Tutor Add Camp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A98E981-7734-4B7F-9B3A-F74FE078D410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37F248C-D9AF-451D-8271-31787785A6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="74">
   <si>
     <t>password</t>
   </si>
@@ -230,9 +230,6 @@
     <t>chess</t>
   </si>
   <si>
-    <t>camp chess 5</t>
-  </si>
-  <si>
     <t>math 1</t>
   </si>
   <si>
@@ -248,19 +245,19 @@
     <t>D:\test\picturesprofile1\bharat3.jpg</t>
   </si>
   <si>
-    <t>22/12/2022</t>
-  </si>
-  <si>
-    <t>23/11/2022</t>
-  </si>
-  <si>
     <t>tutor53@nkt.com</t>
   </si>
   <si>
-    <t>07/12/2022</t>
-  </si>
-  <si>
     <t>31/01/2023</t>
+  </si>
+  <si>
+    <t>camp chess 6</t>
+  </si>
+  <si>
+    <t>01/01/2023</t>
+  </si>
+  <si>
+    <t>10/01/2023</t>
   </si>
 </sst>
 </file>
@@ -681,7 +678,7 @@
   <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1118,13 +1115,13 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>34</v>
@@ -1133,7 +1130,7 @@
         <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s">
         <v>31</v>
@@ -1145,7 +1142,7 @@
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>59</v>
@@ -1160,10 +1157,10 @@
         <v>43</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>54</v>
@@ -1198,22 +1195,22 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" t="s">
         <v>67</v>
       </c>
-      <c r="F7" t="s">
-        <v>68</v>
-      </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
@@ -1225,7 +1222,7 @@
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>59</v>
@@ -1240,7 +1237,7 @@
         <v>43</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>70</v>
@@ -1252,7 +1249,7 @@
         <v>55</v>
       </c>
       <c r="T7" s="4">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="U7" s="9" t="s">
         <v>28</v>

--- a/TestDataXls/Tutor Add Camp.xlsx
+++ b/TestDataXls/Tutor Add Camp.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37F248C-D9AF-451D-8271-31787785A6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ED2FB7-447D-478F-99F7-1ADD5D57EC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="add_camp" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="77">
   <si>
     <t>password</t>
   </si>
@@ -227,9 +227,6 @@
     <t>16/02/2022</t>
   </si>
   <si>
-    <t>chess</t>
-  </si>
-  <si>
     <t>math 1</t>
   </si>
   <si>
@@ -245,19 +242,31 @@
     <t>D:\test\picturesprofile1\bharat3.jpg</t>
   </si>
   <si>
-    <t>tutor53@nkt.com</t>
-  </si>
-  <si>
     <t>31/01/2023</t>
   </si>
   <si>
-    <t>camp chess 6</t>
-  </si>
-  <si>
-    <t>01/01/2023</t>
-  </si>
-  <si>
     <t>10/01/2023</t>
+  </si>
+  <si>
+    <t>tutor60@nkt.com</t>
+  </si>
+  <si>
+    <t>03/03/2023</t>
+  </si>
+  <si>
+    <t>31/03/2023</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>picture2</t>
+  </si>
+  <si>
+    <t>cello camp 10</t>
+  </si>
+  <si>
+    <t>D:\test\picturesprofile1\flyer1.jpg</t>
   </si>
 </sst>
 </file>
@@ -675,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,24 +702,25 @@
     <col min="8" max="8" width="14.44140625" customWidth="1"/>
     <col min="9" max="9" width="15.88671875" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" customWidth="1"/>
-    <col min="11" max="11" width="39.88671875" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="18" width="15.109375" customWidth="1"/>
-    <col min="19" max="20" width="14.5546875" style="3" customWidth="1"/>
-    <col min="21" max="22" width="14.109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.6640625" customWidth="1"/>
-    <col min="25" max="25" width="10.88671875" customWidth="1"/>
-    <col min="26" max="26" width="13.44140625" customWidth="1"/>
-    <col min="27" max="27" width="28.6640625" customWidth="1"/>
-    <col min="28" max="28" width="16.44140625" customWidth="1"/>
+    <col min="11" max="12" width="39.88671875" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="19" width="15.109375" customWidth="1"/>
+    <col min="20" max="21" width="14.5546875" style="3" customWidth="1"/>
+    <col min="22" max="23" width="14.109375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.88671875" customWidth="1"/>
+    <col min="28" max="28" width="13.44140625" customWidth="1"/>
+    <col min="29" max="29" width="28.6640625" customWidth="1"/>
+    <col min="30" max="30" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -745,55 +755,61 @@
         <v>11</v>
       </c>
       <c r="L1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB1" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -827,53 +843,53 @@
       <c r="K2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>18100</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="8">
+      <c r="T2" s="8">
         <v>0.70833333333333337</v>
       </c>
-      <c r="T2" s="4">
+      <c r="U2" s="4">
         <v>20</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="4">
-        <v>1</v>
-      </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="4">
+        <v>1</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="4">
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -907,53 +923,53 @@
       <c r="K3" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>18100</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="8">
+      <c r="T3" s="8">
         <v>0.70833333333333337</v>
       </c>
-      <c r="T3" s="4">
+      <c r="U3" s="4">
         <v>20</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="4">
-        <v>1</v>
-      </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="4">
+        <v>1</v>
+      </c>
+      <c r="X3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>2</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="AB3" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -987,53 +1003,53 @@
       <c r="K4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>18100</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="4">
+      <c r="U4" s="4">
         <v>20</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="4">
-        <v>1</v>
-      </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="4">
+        <v>1</v>
+      </c>
+      <c r="X4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>3</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="AB4" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1064,73 +1080,73 @@
       <c r="K5" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>18100</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="4">
+      <c r="U5" s="4">
         <v>16</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="V5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V5" s="4">
-        <v>1</v>
-      </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="4">
+        <v>1</v>
+      </c>
+      <c r="X5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>4</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AB5" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
         <v>31</v>
@@ -1139,78 +1155,84 @@
         <v>32</v>
       </c>
       <c r="J6" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>18100</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="4">
+      <c r="U6" s="4">
         <v>16</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="V6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="4">
-        <v>1</v>
-      </c>
-      <c r="W6" s="4" t="s">
+      <c r="W6" s="4">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>5</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" t="s">
         <v>66</v>
       </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
@@ -1222,73 +1244,73 @@
         <v>20</v>
       </c>
       <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="2">
+        <v>18100</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="2">
-        <v>18100</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T7" s="4">
+      <c r="U7" s="4">
         <v>5</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="V7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V7" s="4">
-        <v>1</v>
-      </c>
-      <c r="W7" s="4" t="s">
+      <c r="W7" s="4">
+        <v>1</v>
+      </c>
+      <c r="X7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="Y7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>5</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="AB7" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
-      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
-      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
-      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
-      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
-      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
